--- a/storage/app/public/export.xlsx
+++ b/storage/app/public/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
   <si>
     <t>N</t>
   </si>
@@ -41,16 +41,28 @@
     <t>Вывозимое кол-во</t>
   </si>
   <si>
+    <t>1-й Амурский проезд, д. 3 к2, Омск г</t>
+  </si>
+  <si>
+    <t>Стационарные (евро) (1,1 м3)</t>
+  </si>
+  <si>
+    <t>УТ0042333</t>
+  </si>
+  <si>
+    <t>Пн., Вт., Ср., Чт., Пт., Сб., Вс.</t>
+  </si>
+  <si>
     <t>1-й Амурский проезд, д. 3 к1, Омск г</t>
   </si>
   <si>
-    <t>Стационарные (евро) (1,1 м3)</t>
-  </si>
-  <si>
     <t>УТ0011669</t>
   </si>
   <si>
-    <t>Пн., Вт., Ср., Чт., Пт., Сб., Вс.</t>
+    <t>1-й Амурский проезд, д. 5 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037514</t>
   </si>
   <si>
     <t>1-й Амурский проезд, д. 5, Омск г</t>
@@ -69,6 +81,1302 @@
   </si>
   <si>
     <t>УТ0052124</t>
+  </si>
+  <si>
+    <t>2-й Амурский проезд, д. 4, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011041</t>
+  </si>
+  <si>
+    <t>2-й Амурский проезд, д. 4 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011039</t>
+  </si>
+  <si>
+    <t>2-й Амурский проезд, д. 4 к2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011044</t>
+  </si>
+  <si>
+    <t>2-й Амурский проезд, д. 6, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011040</t>
+  </si>
+  <si>
+    <t>3-й Амурский проезд, д. 1 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012017</t>
+  </si>
+  <si>
+    <t>3-й Амурский проезд, д. 3 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012784</t>
+  </si>
+  <si>
+    <t>3-й Амурский проезд, д. 3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012661</t>
+  </si>
+  <si>
+    <t>4-й Амурский проезд, д. 14 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0049142</t>
+  </si>
+  <si>
+    <t>4-й Амурский проезд, д. 14 к2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0050953</t>
+  </si>
+  <si>
+    <t>4-й Амурский проезд, д. 14, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0047284</t>
+  </si>
+  <si>
+    <t>14-я Амурская ул, д. 45, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0047134</t>
+  </si>
+  <si>
+    <t>Вт.(первый и третий вторник месяца)</t>
+  </si>
+  <si>
+    <t>Вт.</t>
+  </si>
+  <si>
+    <t>19-я Амурская ул, д. 69 Е, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007298</t>
+  </si>
+  <si>
+    <t>Пн., Ср., Пт. с 01.09.2020</t>
+  </si>
+  <si>
+    <t>19-я Амурская ул, д. 69, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007296</t>
+  </si>
+  <si>
+    <t>Пн, Ср, Сб</t>
+  </si>
+  <si>
+    <t>19-я Амурская ул, д. 69 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037519</t>
+  </si>
+  <si>
+    <t>Пт.</t>
+  </si>
+  <si>
+    <t>20-я Амурская ул, д. 53, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003201</t>
+  </si>
+  <si>
+    <t>20-я Амурская ул, д. 57, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003200</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 9, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006496</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 12 /1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0021366</t>
+  </si>
+  <si>
+    <t>Ср.</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 14, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004522</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 14 В, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006504</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 15а, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037789</t>
+  </si>
+  <si>
+    <t>Пн., Ср., Пт.</t>
+  </si>
+  <si>
+    <t>Пн., Чт.</t>
+  </si>
+  <si>
+    <t>Пн.</t>
+  </si>
+  <si>
+    <t>Чт.</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 18, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005088</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 19, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037790</t>
+  </si>
+  <si>
+    <t>Чт. (первый и третий четверг месяца)</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 19 Б, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0041193</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 19Б, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048082</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 20г, Омск г</t>
+  </si>
+  <si>
+    <t>Стационарные (евро) (0,77 м3)</t>
+  </si>
+  <si>
+    <t>УТ0045983</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 20б, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007106</t>
+  </si>
+  <si>
+    <t>Стационарные (евро) (0,66 м3)</t>
+  </si>
+  <si>
+    <t>УТ0042597</t>
+  </si>
+  <si>
+    <t>5, 19</t>
+  </si>
+  <si>
+    <t>УТ0011002</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 21, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0027044</t>
+  </si>
+  <si>
+    <t>Пн., Чт., Сб.</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 21/2, Омск г</t>
+  </si>
+  <si>
+    <t>Бункер (27 м3)</t>
+  </si>
+  <si>
+    <t>УТ0013682</t>
+  </si>
+  <si>
+    <t>Пн., Ср., Сб.</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 21а, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048329</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 21 В, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006482</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 22, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006489</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 22Б, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0013624</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 24/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004654</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 26, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004655</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 26/1, Омск г</t>
+  </si>
+  <si>
+    <t>Стационарные евро (0,7 м3)</t>
+  </si>
+  <si>
+    <t>УТ0004686</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 28 В, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004621</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 28, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004648</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 28 Д, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005084</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 32, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005611</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 33/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003761</t>
+  </si>
+  <si>
+    <t>УТ0011001</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 35, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011043</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 37 к. 1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0047448</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 37, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011042</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 41, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011035</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 41/3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011037</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 43 корпус 3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048777</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 43, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011034</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 46 Б, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0013684</t>
+  </si>
+  <si>
+    <t>Пн., Пт.</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 69, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007085</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 69 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011395</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 69 к3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011396</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул/ Байдукова, Омск г</t>
+  </si>
+  <si>
+    <t>Бункер (8 м3)</t>
+  </si>
+  <si>
+    <t>УТ0044858</t>
+  </si>
+  <si>
+    <t>УТ0048875</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 13, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0034334</t>
+  </si>
+  <si>
+    <t>ЧТ (первый и третий четверг каждого месяца)</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51а, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0010148</t>
+  </si>
+  <si>
+    <t>Вт., Пт.</t>
+  </si>
+  <si>
+    <t>Вт, Пт</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51б к 3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0050569</t>
+  </si>
+  <si>
+    <t>15, 30</t>
+  </si>
+  <si>
+    <t>10, 20, 30</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51Б к4, Омск г</t>
+  </si>
+  <si>
+    <t>Стационарные (0,75 м3) </t>
+  </si>
+  <si>
+    <t>УТ0037716</t>
+  </si>
+  <si>
+    <t>15, 24</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51в/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003987</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51в, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006656</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51г, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0010086</t>
+  </si>
+  <si>
+    <t>22 Партсъезда ул, д. 51д, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006683</t>
+  </si>
+  <si>
+    <t>Пт</t>
+  </si>
+  <si>
+    <t>30-я Северная ул, д. 121, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006737</t>
+  </si>
+  <si>
+    <t>Пн., Вт., Ср., Чт., Пт.</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 95, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0013857</t>
+  </si>
+  <si>
+    <t>УТ0045195</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 95/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037644</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 121А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048873</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 122, Омск г</t>
+  </si>
+  <si>
+    <t>Выкатные евро (1,1 м3)</t>
+  </si>
+  <si>
+    <t>УТ0003437</t>
+  </si>
+  <si>
+    <t>УТ0006731</t>
+  </si>
+  <si>
+    <t>УТ0037907</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 138, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012860</t>
+  </si>
+  <si>
+    <t>1, 15, числа</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 155, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048926</t>
+  </si>
+  <si>
+    <t>Вс.</t>
+  </si>
+  <si>
+    <t>36-я Северная ул, д. 5/8, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037486</t>
+  </si>
+  <si>
+    <t>1, 8, 15, 22</t>
+  </si>
+  <si>
+    <t>36-я Северная ул, д. 5/9, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012504</t>
+  </si>
+  <si>
+    <t>Пн. с 16.04.20</t>
+  </si>
+  <si>
+    <t>36-я Северная ул, д. 11, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0042565</t>
+  </si>
+  <si>
+    <t>УТ0044636</t>
+  </si>
+  <si>
+    <t>УТ0032410</t>
+  </si>
+  <si>
+    <t>Ср (2-я и 4-я Ср месяца)</t>
+  </si>
+  <si>
+    <t>36-я Северная ул, д. 122, Омск г</t>
+  </si>
+  <si>
+    <t>Стационарные (0,85 м3)</t>
+  </si>
+  <si>
+    <t>УТ0046972</t>
+  </si>
+  <si>
+    <t>УТ0045115</t>
+  </si>
+  <si>
+    <t>36-я Северная ул,/12-я Амурская Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012458</t>
+  </si>
+  <si>
+    <t>36-я Северная ул,/16-я Амурская Омск г</t>
+  </si>
+  <si>
+    <t>УТ0010482</t>
+  </si>
+  <si>
+    <t>36-я Северная ул,/19-я Амурская Омск г</t>
+  </si>
+  <si>
+    <t>УТ0010483</t>
+  </si>
+  <si>
+    <t>36-я Северная ул,/20-я Амурская Омск г</t>
+  </si>
+  <si>
+    <t>УТ0021585</t>
+  </si>
+  <si>
+    <t>18-я Амурская ул, д. 1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006102</t>
+  </si>
+  <si>
+    <t>Амурская 19-я ул, д. 51</t>
+  </si>
+  <si>
+    <t>УТ0007295</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 17, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0021904</t>
+  </si>
+  <si>
+    <t>Вт., Чт.</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 17 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007299</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 17 В, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007525</t>
+  </si>
+  <si>
+    <t>5, 20</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 20в, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007230</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 20а, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0021252</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 22а, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0020807</t>
+  </si>
+  <si>
+    <t>5/12/2021</t>
+  </si>
+  <si>
+    <t>Ср., Пт. </t>
+  </si>
+  <si>
+    <t>Ср., Пт.</t>
+  </si>
+  <si>
+    <t>Пт. </t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 23а, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0037324</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 24а</t>
+  </si>
+  <si>
+    <t>УТ0006494</t>
+  </si>
+  <si>
+    <t>Вт., Пт. (искл. 08.01; 04.05)</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 25, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006498</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 25 к3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006502</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 25 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011036</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 39, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011038</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 41/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011033</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 41/2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003481</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 43/2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007099</t>
+  </si>
+  <si>
+    <t>Баранова ул, д. 2 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007548</t>
+  </si>
+  <si>
+    <t>10, 25</t>
+  </si>
+  <si>
+    <t>10, 25 числа с 01.09.19</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 49, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011028</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 51, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011032</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 61 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011030</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 61 к3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011031</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 17, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005187</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 21, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004924</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 21 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0039303</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 21 Б, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004625</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 21 Г, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004523</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 25 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006684</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 29, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004649</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 29 В, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004656</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 29 Д, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004624</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 31, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005357</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 72, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0020756</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 84, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0000389</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 92, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003827</t>
+  </si>
+  <si>
+    <t>УТ0048389</t>
+  </si>
+  <si>
+    <t>1, 10, 20</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 94 А, Омск г</t>
+  </si>
+  <si>
+    <t>Стационарные (евро) (0,24 м3)</t>
+  </si>
+  <si>
+    <t>УТ0048687</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 94, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0002950</t>
+  </si>
+  <si>
+    <t>Багратиона ул, д. 102/1</t>
+  </si>
+  <si>
+    <t>УТ0006655</t>
+  </si>
+  <si>
+    <t>Байдукова ул, д. 25, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007323</t>
+  </si>
+  <si>
+    <t>2, 16</t>
+  </si>
+  <si>
+    <t>Виктория ТСН СНТ Пушкинский тракт, 1 ВЪЕЗД Омск г</t>
+  </si>
+  <si>
+    <t>УТ0042788</t>
+  </si>
+  <si>
+    <t>29 число</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011829</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0015187</t>
+  </si>
+  <si>
+    <t>1, 15 числа</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 5 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0041497</t>
+  </si>
+  <si>
+    <t>14, 29 число</t>
+  </si>
+  <si>
+    <t>14 число</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 5 к5, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0014263</t>
+  </si>
+  <si>
+    <t>Пн., Вс.</t>
+  </si>
+  <si>
+    <t>Вт., Ср., Чт., Пт., Сб.</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 7, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048849</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 7 к2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0004929</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 7 к4, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0013110</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 9 к4, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048622</t>
+  </si>
+  <si>
+    <t>30.03.21;30.06.21;30.09.21;30.12.21</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 9к6, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0011049</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 9к2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0000856</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 13, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0042645</t>
+  </si>
+  <si>
+    <t>УТ0013591</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 16, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0003408</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 18к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0002552</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 18/3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006112</t>
+  </si>
+  <si>
+    <t>Пн., Пт. с 21.10.19</t>
+  </si>
+  <si>
+    <t>УТ0016457</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 18/4, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007025</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 18/5, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005118</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 22, к. 1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0014175</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 22 А, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006095</t>
+  </si>
+  <si>
+    <t>Сб.</t>
+  </si>
+  <si>
+    <t>Комнатова, д. 27, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0038338</t>
+  </si>
+  <si>
+    <t>УТ0049035</t>
+  </si>
+  <si>
+    <t>Пушкинский тракт , СНТ Любитель, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0044178</t>
+  </si>
+  <si>
+    <t>7, 25</t>
+  </si>
+  <si>
+    <t>Пушкинский тракт , СНТ Любитель-2, 6 аллея, д. 14, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0042585</t>
+  </si>
+  <si>
+    <t>Пушкинский тракт, д. СНТ Ромашка Омск г</t>
+  </si>
+  <si>
+    <t>УТ0007264</t>
+  </si>
+  <si>
+    <t>СНТ Водник, д. 3-я главная аллея, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0049398</t>
+  </si>
+  <si>
+    <t>1, 16</t>
+  </si>
+  <si>
+    <t>СНТ Крона, Омский р-н</t>
+  </si>
+  <si>
+    <t>УТ0009619</t>
+  </si>
+  <si>
+    <t>СНТ Патриот, 1 аллея, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0044892</t>
+  </si>
+  <si>
+    <t>СНТ Патриот, 5 аллея, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0044895</t>
+  </si>
+  <si>
+    <t>СНТ Энергия (Ворота 2), Пушкинский тракт, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048894</t>
+  </si>
+  <si>
+    <t>СНТ Энергия (Ворота 3), Пушкинский тракт, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048895</t>
+  </si>
+  <si>
+    <t>станция Омск-Северный, Омск г (здание поста электроцентрального)</t>
+  </si>
+  <si>
+    <t>УТ0022132</t>
+  </si>
+  <si>
+    <t>Стороженко ул, д. 25 к3, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0050863</t>
+  </si>
+  <si>
+    <t>Успешная ул (ПТПВ Омск-Северный), д. 1к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0021956</t>
+  </si>
+  <si>
+    <t>15 числа каждого месяца</t>
+  </si>
+  <si>
+    <t>Успешная ул, д. 2, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006110</t>
+  </si>
+  <si>
+    <t>Успешная ул, д. 3/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006128</t>
+  </si>
+  <si>
+    <t>Челюскинцев 4-я ул, д. 68</t>
+  </si>
+  <si>
+    <t>УТ0007322</t>
+  </si>
+  <si>
+    <t>Челюскинцев 4-я ул, д. 68/1</t>
+  </si>
+  <si>
+    <t>УТ0007321</t>
+  </si>
+  <si>
+    <t>УТ0011045</t>
+  </si>
+  <si>
+    <t>Есть мнение, что информации, загруженной из xls-файла недостаточно. Выбрано строчек меньше, чем передано гео-точек.</t>
+  </si>
+  <si>
+    <t>3-й Амурский проезд, д. 3/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0012499</t>
+  </si>
+  <si>
+    <t>20-я Амурская ул, д. 59, Омск г (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0000285</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 9, Омск г (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040898</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 14, Омск г (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040904</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 18 (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040908</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 21/1 Омск г</t>
+  </si>
+  <si>
+    <t>УТ0006865</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 22 (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040914</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 24/1 (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040916</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 26 (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040918</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 26/1, Омск г (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0042801</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 28 (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040919</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 28д (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040921</t>
+  </si>
+  <si>
+    <t>21-я Амурская ул, д. 32 (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0040924</t>
+  </si>
+  <si>
+    <t>33-я Северная ул, д. 155, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0015758</t>
+  </si>
+  <si>
+    <t>36-я Северная ул/18 Амурская, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0044459</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 13</t>
+  </si>
+  <si>
+    <t>УТ0007307</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 17 , Омск г</t>
+  </si>
+  <si>
+    <t>УТ0010064</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 20а</t>
+  </si>
+  <si>
+    <t>УТ0006475</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 21 А</t>
+  </si>
+  <si>
+    <t>УТ0007318</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 21, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0044258</t>
+  </si>
+  <si>
+    <t>Амурская 21-я ул, д. 41/2</t>
+  </si>
+  <si>
+    <t>УТ0022577</t>
+  </si>
+  <si>
+    <t>Байдукова ул, д. 25, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005986</t>
+  </si>
+  <si>
+    <t>Завертяева ул, д. 7/4</t>
+  </si>
+  <si>
+    <t>УТ0000854</t>
+  </si>
+  <si>
+    <t>Северная 33-я ул, д. 155</t>
+  </si>
+  <si>
+    <t>УТ0007011</t>
+  </si>
+  <si>
+    <t>Северная 36-я/Амурская 19-я , Омск г (КГМ)</t>
+  </si>
+  <si>
+    <t>УТ0042810</t>
+  </si>
+  <si>
+    <t>СНТ Патриот, аллея 1 у центральных ворот, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0009620</t>
+  </si>
+  <si>
+    <t>Успешная ул, д. 1/1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0005943</t>
   </si>
 </sst>
 </file>
@@ -407,7 +1715,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -487,10 +1795,10 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -513,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -524,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -533,16 +1841,7178 @@
         <v>1.1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>365</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>365</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>365</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>365</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>365</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>365</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>365</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>365</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>365</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>365</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>365</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>1.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>365</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>365</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1.1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>157</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1.1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22">
+        <v>156</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>1.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>365</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1.1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>365</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>1.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>365</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1.1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>365</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1.1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <v>52</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1.1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <v>52</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1.1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>365</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>1.1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>365</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>365</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>365</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1.1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>1.1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>1.1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>1.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>1.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>1.1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>1.1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41">
+        <v>47</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>1.1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>365</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1.1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>1.1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>1.1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>365</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>1.1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46">
+        <v>27</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>1.1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48">
+        <v>0.77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>1.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>365</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <v>0.66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>1.1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51">
+        <v>157</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52">
+        <v>0.66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>157</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <v>0.77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53">
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>1.1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>1.1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>1.1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>1.1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58">
+        <v>156</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59">
+        <v>156</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>1.1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>1.1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>365</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>1.1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>365</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>1.1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>1.1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>365</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>1.1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>365</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66">
+        <v>0.7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>365</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>1.1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>365</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>1.1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>365</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>1.1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>365</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>1.1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <v>365</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>1.1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>365</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>1.1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>365</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>1.1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73">
+        <v>157</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>1.1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>365</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>1.1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75">
+        <v>79</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>1.1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>1.1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>365</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>1.1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>365</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>1.1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>365</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>1.1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
+        <v>70</v>
+      </c>
+      <c r="G80">
+        <v>120</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>1.1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81">
+        <v>105</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>1.1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>365</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>1.1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>1.1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84">
+        <v>72</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>1.1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>365</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>1.1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>365</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>1.1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87">
+        <v>365</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <v>365</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>1.1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89">
+        <v>275</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>1.1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G90">
+        <v>28</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>1.1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" t="s">
+        <v>154</v>
+      </c>
+      <c r="G91">
+        <v>11</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>1.1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>1.1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>1.1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>1.1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>1.1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96">
+        <v>96</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>1.1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97">
+        <v>105</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>1.1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98">
+        <v>15</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>1.1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>1.1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>1.1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101">
+        <v>18</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102">
+        <v>0.75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103">
+        <v>0.75</v>
+      </c>
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" t="s">
+        <v>166</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104">
+        <v>0.75</v>
+      </c>
+      <c r="E104" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" t="s">
+        <v>161</v>
+      </c>
+      <c r="G104">
+        <v>12</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105">
+        <v>0.7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105">
+        <v>157</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>1.1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>170</v>
+      </c>
+      <c r="F106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106">
+        <v>52</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107">
+        <v>0.7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
+      </c>
+      <c r="F107" t="s">
+        <v>70</v>
+      </c>
+      <c r="G107">
+        <v>157</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>1.1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108" t="s">
+        <v>45</v>
+      </c>
+      <c r="G108">
+        <v>52</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>1.1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" t="s">
+        <v>158</v>
+      </c>
+      <c r="G109">
+        <v>105</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>1.1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>174</v>
+      </c>
+      <c r="F110" t="s">
+        <v>175</v>
+      </c>
+      <c r="G110">
+        <v>53</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>1.1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111">
+        <v>216</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>1.1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>177</v>
+      </c>
+      <c r="F112" t="s">
+        <v>178</v>
+      </c>
+      <c r="G112">
+        <v>45</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>1.1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F113" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113">
+        <v>52</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>1.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114">
+        <v>52</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>1.1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <v>12</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116">
+        <v>0.77</v>
+      </c>
+      <c r="E116" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116">
+        <v>52</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>1.1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>180</v>
+      </c>
+      <c r="F117" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117">
+        <v>52</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>1.1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118">
+        <v>52</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>1.1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>180</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120">
+        <v>0.77</v>
+      </c>
+      <c r="E120" t="s">
+        <v>181</v>
+      </c>
+      <c r="F120" t="s">
+        <v>63</v>
+      </c>
+      <c r="G120">
+        <v>52</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>1.1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121">
+        <v>27</v>
+      </c>
+      <c r="G121">
+        <v>12</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>1.1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>275</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123">
+        <v>1.1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>188</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>365</v>
+      </c>
+      <c r="H123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>1.1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>189</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>365</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125">
+        <v>0.66</v>
+      </c>
+      <c r="E125" t="s">
+        <v>190</v>
+      </c>
+      <c r="F125" t="s">
+        <v>70</v>
+      </c>
+      <c r="G125">
+        <v>157</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126">
+        <v>1.1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>365</v>
+      </c>
+      <c r="H126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>1.1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>189</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>365</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128">
+        <v>0.66</v>
+      </c>
+      <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128" t="s">
+        <v>70</v>
+      </c>
+      <c r="G128">
+        <v>157</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>1.1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>192</v>
+      </c>
+      <c r="F129" t="s">
+        <v>193</v>
+      </c>
+      <c r="G129">
+        <v>24</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>1.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>195</v>
+      </c>
+      <c r="F130" t="s">
+        <v>196</v>
+      </c>
+      <c r="G130">
+        <v>43</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>1.1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>198</v>
+      </c>
+      <c r="F131" t="s">
+        <v>199</v>
+      </c>
+      <c r="G131">
+        <v>29</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>1.1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>198</v>
+      </c>
+      <c r="F132" t="s">
+        <v>161</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>1.1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>201</v>
+      </c>
+      <c r="F133" t="s">
+        <v>202</v>
+      </c>
+      <c r="G133">
+        <v>52</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>1.1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>204</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="G134">
+        <v>12</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>1.1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135">
+        <v>12</v>
+      </c>
+      <c r="G135">
+        <v>12</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D136">
+        <v>0.66</v>
+      </c>
+      <c r="E136" t="s">
+        <v>206</v>
+      </c>
+      <c r="F136" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136">
+        <v>24</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" t="s">
+        <v>209</v>
+      </c>
+      <c r="D137">
+        <v>0.85</v>
+      </c>
+      <c r="E137" t="s">
+        <v>210</v>
+      </c>
+      <c r="F137" t="s">
+        <v>73</v>
+      </c>
+      <c r="G137">
+        <v>22</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>208</v>
+      </c>
+      <c r="C138" t="s">
+        <v>209</v>
+      </c>
+      <c r="D138">
+        <v>0.85</v>
+      </c>
+      <c r="E138" t="s">
+        <v>210</v>
+      </c>
+      <c r="F138" t="s">
+        <v>73</v>
+      </c>
+      <c r="G138">
+        <v>29</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139">
+        <v>0.75</v>
+      </c>
+      <c r="E139" t="s">
+        <v>211</v>
+      </c>
+      <c r="F139" t="s">
+        <v>73</v>
+      </c>
+      <c r="G139">
+        <v>22</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140">
+        <v>0.75</v>
+      </c>
+      <c r="E140" t="s">
+        <v>211</v>
+      </c>
+      <c r="F140" t="s">
+        <v>73</v>
+      </c>
+      <c r="G140">
+        <v>29</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>1.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>213</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141">
+        <v>365</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>1.1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>215</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>365</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>1.1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143">
+        <v>365</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>1.1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>217</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>365</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>218</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>1.1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>219</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>365</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>218</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>1.1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>219</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>365</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>220</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>1.1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>221</v>
+      </c>
+      <c r="F147" t="s">
+        <v>157</v>
+      </c>
+      <c r="G147">
+        <v>27</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>1.1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>221</v>
+      </c>
+      <c r="F148" t="s">
+        <v>157</v>
+      </c>
+      <c r="G148">
+        <v>75</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>222</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>1.1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>223</v>
+      </c>
+      <c r="F149" t="s">
+        <v>63</v>
+      </c>
+      <c r="G149">
+        <v>52</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>222</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>1.1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>223</v>
+      </c>
+      <c r="F150" t="s">
+        <v>63</v>
+      </c>
+      <c r="G150">
+        <v>52</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>224</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>1.1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>225</v>
+      </c>
+      <c r="F151" t="s">
+        <v>45</v>
+      </c>
+      <c r="G151">
+        <v>14</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>224</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>1.1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>225</v>
+      </c>
+      <c r="F152" t="s">
+        <v>226</v>
+      </c>
+      <c r="G152">
+        <v>35</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>224</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>1.1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>225</v>
+      </c>
+      <c r="F153" t="s">
+        <v>226</v>
+      </c>
+      <c r="G153">
+        <v>40</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>1.1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>228</v>
+      </c>
+      <c r="F154" t="s">
+        <v>71</v>
+      </c>
+      <c r="G154">
+        <v>76</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>227</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>1.1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>228</v>
+      </c>
+      <c r="F155" t="s">
+        <v>71</v>
+      </c>
+      <c r="G155">
+        <v>26</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>229</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>1.1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>230</v>
+      </c>
+      <c r="F156" t="s">
+        <v>231</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>229</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>1.1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>230</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>229</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158">
+        <v>1.1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>230</v>
+      </c>
+      <c r="F158" t="s">
+        <v>231</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>229</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159">
+        <v>1.1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>230</v>
+      </c>
+      <c r="F159" t="s">
+        <v>157</v>
+      </c>
+      <c r="G159">
+        <v>9</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>232</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>1.1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>233</v>
+      </c>
+      <c r="F160" t="s">
+        <v>157</v>
+      </c>
+      <c r="G160">
+        <v>105</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>234</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>1.1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>235</v>
+      </c>
+      <c r="F161" t="s">
+        <v>157</v>
+      </c>
+      <c r="G161">
+        <v>35</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>234</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>1.1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>235</v>
+      </c>
+      <c r="F162" t="s">
+        <v>45</v>
+      </c>
+      <c r="G162">
+        <v>9</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>1.1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>235</v>
+      </c>
+      <c r="F163" t="s">
+        <v>157</v>
+      </c>
+      <c r="G163">
+        <v>49</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>1.1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" t="s">
+        <v>238</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165">
+        <v>1.1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>237</v>
+      </c>
+      <c r="F165" t="s">
+        <v>239</v>
+      </c>
+      <c r="G165">
+        <v>36</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>1.1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>237</v>
+      </c>
+      <c r="F166" t="s">
+        <v>240</v>
+      </c>
+      <c r="G166">
+        <v>32</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>1.1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>237</v>
+      </c>
+      <c r="F167" t="s">
+        <v>241</v>
+      </c>
+      <c r="G167">
+        <v>17</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>1.1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>243</v>
+      </c>
+      <c r="F168" t="s">
+        <v>157</v>
+      </c>
+      <c r="G168">
+        <v>78</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>242</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <v>1.1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>243</v>
+      </c>
+      <c r="F169" t="s">
+        <v>157</v>
+      </c>
+      <c r="G169">
+        <v>9</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170">
+        <v>1.1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>243</v>
+      </c>
+      <c r="F170" t="s">
+        <v>157</v>
+      </c>
+      <c r="G170">
+        <v>18</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>244</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>1.1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" t="s">
+        <v>45</v>
+      </c>
+      <c r="G171">
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>244</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172">
+        <v>1.1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>245</v>
+      </c>
+      <c r="F172" t="s">
+        <v>246</v>
+      </c>
+      <c r="G172">
+        <v>49</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>244</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>1.1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>245</v>
+      </c>
+      <c r="F173" t="s">
+        <v>157</v>
+      </c>
+      <c r="G173">
+        <v>44</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174">
+        <v>1.1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>248</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174">
+        <v>365</v>
+      </c>
+      <c r="H174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>249</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>1.1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>250</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175">
+        <v>365</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>251</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>1.1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>252</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>365</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>253</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>1.1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>254</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>365</v>
+      </c>
+      <c r="H177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>1.1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>132</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178">
+        <v>365</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179">
+        <v>1.1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>256</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179">
+        <v>365</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>257</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <v>1.1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>258</v>
+      </c>
+      <c r="F180" t="s">
+        <v>226</v>
+      </c>
+      <c r="G180">
+        <v>50</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <v>1.1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>258</v>
+      </c>
+      <c r="F181" t="s">
+        <v>226</v>
+      </c>
+      <c r="G181">
+        <v>45</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>133</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>1.1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>134</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182">
+        <v>365</v>
+      </c>
+      <c r="H182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>137</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <v>1.1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>138</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183">
+        <v>365</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>259</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184">
+        <v>1.1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>260</v>
+      </c>
+      <c r="F184" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184">
+        <v>365</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>261</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <v>1.1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>262</v>
+      </c>
+      <c r="F185" t="s">
+        <v>263</v>
+      </c>
+      <c r="G185">
+        <v>24</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>261</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186">
+        <v>1.1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>262</v>
+      </c>
+      <c r="F186" t="s">
+        <v>264</v>
+      </c>
+      <c r="G186">
+        <v>24</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>261</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187">
+        <v>1.1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>262</v>
+      </c>
+      <c r="F187" t="s">
+        <v>63</v>
+      </c>
+      <c r="G187">
+        <v>52</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>265</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>1.1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>266</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188">
+        <v>365</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>267</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189">
+        <v>1.1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>268</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>365</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>269</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190">
+        <v>1.1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>270</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>365</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>271</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>1.1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>272</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191">
+        <v>365</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>142</v>
+      </c>
+      <c r="C192" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192">
+        <v>1.1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>143</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192">
+        <v>365</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>273</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193">
+        <v>1.1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>274</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193">
+        <v>365</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>275</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194">
+        <v>1.1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>276</v>
+      </c>
+      <c r="F194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194">
+        <v>365</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>277</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195">
+        <v>1.1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>278</v>
+      </c>
+      <c r="F195" t="s">
+        <v>11</v>
+      </c>
+      <c r="G195">
+        <v>365</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>279</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196">
+        <v>1.1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>280</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196">
+        <v>365</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>281</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>1.1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>282</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197">
+        <v>365</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>283</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198">
+        <v>1.1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>284</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198">
+        <v>365</v>
+      </c>
+      <c r="H198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>285</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199">
+        <v>1.1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>286</v>
+      </c>
+      <c r="F199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199">
+        <v>365</v>
+      </c>
+      <c r="H199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>287</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>1.1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>288</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200">
+        <v>365</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>289</v>
+      </c>
+      <c r="C201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201">
+        <v>1.1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>290</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201">
+        <v>365</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>291</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202">
+        <v>1.1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>292</v>
+      </c>
+      <c r="F202" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202">
+        <v>365</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>291</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203">
+        <v>1.1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>292</v>
+      </c>
+      <c r="F203" t="s">
+        <v>70</v>
+      </c>
+      <c r="G203">
+        <v>157</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>293</v>
+      </c>
+      <c r="C204" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204">
+        <v>1.1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>294</v>
+      </c>
+      <c r="F204" t="s">
+        <v>11</v>
+      </c>
+      <c r="G204">
+        <v>275</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>295</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205">
+        <v>1.1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>296</v>
+      </c>
+      <c r="F205" t="s">
+        <v>11</v>
+      </c>
+      <c r="G205">
+        <v>365</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>297</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>1.1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>298</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206">
+        <v>365</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>297</v>
+      </c>
+      <c r="C207" t="s">
+        <v>88</v>
+      </c>
+      <c r="D207">
+        <v>0.66</v>
+      </c>
+      <c r="E207" t="s">
+        <v>299</v>
+      </c>
+      <c r="F207" t="s">
+        <v>300</v>
+      </c>
+      <c r="G207">
+        <v>13</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>301</v>
+      </c>
+      <c r="C208" t="s">
+        <v>302</v>
+      </c>
+      <c r="D208">
+        <v>0.24</v>
+      </c>
+      <c r="E208" t="s">
+        <v>303</v>
+      </c>
+      <c r="F208">
+        <v>15</v>
+      </c>
+      <c r="G208">
+        <v>10</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>304</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>1.1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>305</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209">
+        <v>365</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>301</v>
+      </c>
+      <c r="C210" t="s">
+        <v>302</v>
+      </c>
+      <c r="D210">
+        <v>0.24</v>
+      </c>
+      <c r="E210" t="s">
+        <v>303</v>
+      </c>
+      <c r="F210">
+        <v>15</v>
+      </c>
+      <c r="G210">
+        <v>10</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>306</v>
+      </c>
+      <c r="C211" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211">
+        <v>1.1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>307</v>
+      </c>
+      <c r="F211" t="s">
+        <v>263</v>
+      </c>
+      <c r="G211">
+        <v>24</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212">
+        <v>1.1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>307</v>
+      </c>
+      <c r="F212" t="s">
+        <v>263</v>
+      </c>
+      <c r="G212">
+        <v>24</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>308</v>
+      </c>
+      <c r="C213" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213">
+        <v>1.1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>309</v>
+      </c>
+      <c r="F213" t="s">
+        <v>310</v>
+      </c>
+      <c r="G213">
+        <v>24</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>311</v>
+      </c>
+      <c r="C214" t="s">
+        <v>149</v>
+      </c>
+      <c r="D214">
+        <v>8</v>
+      </c>
+      <c r="E214" t="s">
+        <v>312</v>
+      </c>
+      <c r="F214" t="s">
+        <v>313</v>
+      </c>
+      <c r="G214">
+        <v>6</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>314</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215">
+        <v>1.1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>315</v>
+      </c>
+      <c r="F215" t="s">
+        <v>54</v>
+      </c>
+      <c r="G215">
+        <v>53</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>316</v>
+      </c>
+      <c r="C216" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216">
+        <v>1.1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>317</v>
+      </c>
+      <c r="F216" t="s">
+        <v>318</v>
+      </c>
+      <c r="G216">
+        <v>24</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" t="s">
+        <v>302</v>
+      </c>
+      <c r="D217">
+        <v>0.24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>320</v>
+      </c>
+      <c r="F217" t="s">
+        <v>321</v>
+      </c>
+      <c r="G217">
+        <v>24</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>319</v>
+      </c>
+      <c r="C218" t="s">
+        <v>302</v>
+      </c>
+      <c r="D218">
+        <v>0.24</v>
+      </c>
+      <c r="E218" t="s">
+        <v>320</v>
+      </c>
+      <c r="F218" t="s">
+        <v>322</v>
+      </c>
+      <c r="G218">
+        <v>12</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>323</v>
+      </c>
+      <c r="C219" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219">
+        <v>1.1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>324</v>
+      </c>
+      <c r="F219" t="s">
+        <v>325</v>
+      </c>
+      <c r="G219">
+        <v>104</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>323</v>
+      </c>
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220">
+        <v>1.1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>324</v>
+      </c>
+      <c r="F220" t="s">
+        <v>326</v>
+      </c>
+      <c r="G220">
+        <v>261</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>327</v>
+      </c>
+      <c r="C221" t="s">
+        <v>164</v>
+      </c>
+      <c r="D221">
+        <v>0.75</v>
+      </c>
+      <c r="E221" t="s">
+        <v>328</v>
+      </c>
+      <c r="F221" t="s">
+        <v>11</v>
+      </c>
+      <c r="G221">
+        <v>365</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>329</v>
+      </c>
+      <c r="C222" t="s">
+        <v>164</v>
+      </c>
+      <c r="D222">
+        <v>0.75</v>
+      </c>
+      <c r="E222" t="s">
+        <v>330</v>
+      </c>
+      <c r="F222" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222">
+        <v>365</v>
+      </c>
+      <c r="H222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>331</v>
+      </c>
+      <c r="C223" t="s">
+        <v>164</v>
+      </c>
+      <c r="D223">
+        <v>0.75</v>
+      </c>
+      <c r="E223" t="s">
+        <v>332</v>
+      </c>
+      <c r="F223" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223">
+        <v>365</v>
+      </c>
+      <c r="H223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>333</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224">
+        <v>1.1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>335</v>
+      </c>
+      <c r="G224">
+        <v>4</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>336</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <v>1.1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>337</v>
+      </c>
+      <c r="F225" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225">
+        <v>365</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>338</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>1.1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>339</v>
+      </c>
+      <c r="F226" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226">
+        <v>365</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>340</v>
+      </c>
+      <c r="C227" t="s">
+        <v>88</v>
+      </c>
+      <c r="D227">
+        <v>0.66</v>
+      </c>
+      <c r="E227" t="s">
+        <v>341</v>
+      </c>
+      <c r="F227" t="s">
+        <v>157</v>
+      </c>
+      <c r="G227">
+        <v>105</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>340</v>
+      </c>
+      <c r="C228" t="s">
+        <v>164</v>
+      </c>
+      <c r="D228">
+        <v>0.75</v>
+      </c>
+      <c r="E228" t="s">
+        <v>342</v>
+      </c>
+      <c r="F228" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228">
+        <v>365</v>
+      </c>
+      <c r="H228">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>340</v>
+      </c>
+      <c r="C229" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229">
+        <v>0.66</v>
+      </c>
+      <c r="E229" t="s">
+        <v>341</v>
+      </c>
+      <c r="F229" t="s">
+        <v>157</v>
+      </c>
+      <c r="G229">
+        <v>105</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>343</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230">
+        <v>1.1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>344</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230">
+        <v>365</v>
+      </c>
+      <c r="H230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>345</v>
+      </c>
+      <c r="C231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231">
+        <v>1.1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>346</v>
+      </c>
+      <c r="F231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G231">
+        <v>365</v>
+      </c>
+      <c r="H231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>347</v>
+      </c>
+      <c r="C232" t="s">
+        <v>112</v>
+      </c>
+      <c r="D232">
+        <v>0.7</v>
+      </c>
+      <c r="E232" t="s">
+        <v>348</v>
+      </c>
+      <c r="F232" t="s">
+        <v>349</v>
+      </c>
+      <c r="G232">
+        <v>105</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>347</v>
+      </c>
+      <c r="C233" t="s">
+        <v>112</v>
+      </c>
+      <c r="D233">
+        <v>0.7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>348</v>
+      </c>
+      <c r="F233" t="s">
+        <v>349</v>
+      </c>
+      <c r="G233">
+        <v>105</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>347</v>
+      </c>
+      <c r="C234" t="s">
+        <v>88</v>
+      </c>
+      <c r="D234">
+        <v>0.66</v>
+      </c>
+      <c r="E234" t="s">
+        <v>350</v>
+      </c>
+      <c r="F234" t="s">
+        <v>70</v>
+      </c>
+      <c r="G234">
+        <v>157</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>347</v>
+      </c>
+      <c r="C235" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235">
+        <v>0.66</v>
+      </c>
+      <c r="E235" t="s">
+        <v>350</v>
+      </c>
+      <c r="F235" t="s">
+        <v>45</v>
+      </c>
+      <c r="G235">
+        <v>52</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>351</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236">
+        <v>1.1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>352</v>
+      </c>
+      <c r="F236" t="s">
+        <v>349</v>
+      </c>
+      <c r="G236">
+        <v>105</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>351</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237">
+        <v>1.1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>352</v>
+      </c>
+      <c r="F237" t="s">
+        <v>70</v>
+      </c>
+      <c r="G237">
+        <v>157</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>353</v>
+      </c>
+      <c r="C238" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238">
+        <v>1.1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>354</v>
+      </c>
+      <c r="F238" t="s">
+        <v>11</v>
+      </c>
+      <c r="G238">
+        <v>365</v>
+      </c>
+      <c r="H238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>355</v>
+      </c>
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239">
+        <v>1.1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>356</v>
+      </c>
+      <c r="F239" t="s">
+        <v>72</v>
+      </c>
+      <c r="G239">
+        <v>52</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>357</v>
+      </c>
+      <c r="C240" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240">
+        <v>1.1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>358</v>
+      </c>
+      <c r="F240" t="s">
+        <v>359</v>
+      </c>
+      <c r="G240">
+        <v>52</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>360</v>
+      </c>
+      <c r="C241" t="s">
+        <v>149</v>
+      </c>
+      <c r="D241">
+        <v>8</v>
+      </c>
+      <c r="E241" t="s">
+        <v>361</v>
+      </c>
+      <c r="F241" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241">
+        <v>365</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>360</v>
+      </c>
+      <c r="C242" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242">
+        <v>1.1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>362</v>
+      </c>
+      <c r="F242" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242">
+        <v>275</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>363</v>
+      </c>
+      <c r="C243" t="s">
+        <v>149</v>
+      </c>
+      <c r="D243">
+        <v>8</v>
+      </c>
+      <c r="E243" t="s">
+        <v>364</v>
+      </c>
+      <c r="F243" t="s">
+        <v>365</v>
+      </c>
+      <c r="G243">
+        <v>12</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>366</v>
+      </c>
+      <c r="C244" t="s">
+        <v>149</v>
+      </c>
+      <c r="D244">
+        <v>8</v>
+      </c>
+      <c r="E244" t="s">
+        <v>367</v>
+      </c>
+      <c r="F244" t="s">
+        <v>161</v>
+      </c>
+      <c r="G244">
+        <v>12</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>368</v>
+      </c>
+      <c r="C245" t="s">
+        <v>149</v>
+      </c>
+      <c r="D245">
+        <v>8</v>
+      </c>
+      <c r="E245" t="s">
+        <v>369</v>
+      </c>
+      <c r="F245" t="s">
+        <v>63</v>
+      </c>
+      <c r="G245">
+        <v>26</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>368</v>
+      </c>
+      <c r="C246" t="s">
+        <v>149</v>
+      </c>
+      <c r="D246">
+        <v>8</v>
+      </c>
+      <c r="E246" t="s">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>20</v>
+      </c>
+      <c r="G246">
+        <v>2</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>368</v>
+      </c>
+      <c r="C247" t="s">
+        <v>149</v>
+      </c>
+      <c r="D247">
+        <v>8</v>
+      </c>
+      <c r="E247" t="s">
+        <v>369</v>
+      </c>
+      <c r="F247">
+        <v>20</v>
+      </c>
+      <c r="G247">
+        <v>4</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>368</v>
+      </c>
+      <c r="C248" t="s">
+        <v>149</v>
+      </c>
+      <c r="D248">
+        <v>8</v>
+      </c>
+      <c r="E248" t="s">
+        <v>369</v>
+      </c>
+      <c r="F248" t="s">
+        <v>63</v>
+      </c>
+      <c r="G248">
+        <v>26</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>368</v>
+      </c>
+      <c r="C249" t="s">
+        <v>149</v>
+      </c>
+      <c r="D249">
+        <v>8</v>
+      </c>
+      <c r="E249" t="s">
+        <v>369</v>
+      </c>
+      <c r="F249">
+        <v>20</v>
+      </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>368</v>
+      </c>
+      <c r="C250" t="s">
+        <v>149</v>
+      </c>
+      <c r="D250">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>369</v>
+      </c>
+      <c r="F250">
+        <v>20</v>
+      </c>
+      <c r="G250">
+        <v>4</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>212</v>
+      </c>
+      <c r="C251" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251">
+        <v>1.1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>213</v>
+      </c>
+      <c r="F251" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251">
+        <v>365</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>370</v>
+      </c>
+      <c r="C252" t="s">
+        <v>149</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>371</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>2</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>370</v>
+      </c>
+      <c r="C253" t="s">
+        <v>149</v>
+      </c>
+      <c r="D253">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
+        <v>371</v>
+      </c>
+      <c r="F253" t="s">
+        <v>372</v>
+      </c>
+      <c r="G253">
+        <v>14</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>373</v>
+      </c>
+      <c r="C254" t="s">
+        <v>149</v>
+      </c>
+      <c r="D254">
+        <v>8</v>
+      </c>
+      <c r="E254" t="s">
+        <v>374</v>
+      </c>
+      <c r="F254" t="s">
+        <v>72</v>
+      </c>
+      <c r="G254">
+        <v>26</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>373</v>
+      </c>
+      <c r="C255" t="s">
+        <v>149</v>
+      </c>
+      <c r="D255">
+        <v>8</v>
+      </c>
+      <c r="E255" t="s">
+        <v>374</v>
+      </c>
+      <c r="F255" t="s">
+        <v>72</v>
+      </c>
+      <c r="G255">
+        <v>26</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>375</v>
+      </c>
+      <c r="C256" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256">
+        <v>1.1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>376</v>
+      </c>
+      <c r="F256">
+        <v>15</v>
+      </c>
+      <c r="G256">
+        <v>12</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>377</v>
+      </c>
+      <c r="C257" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257">
+        <v>1.1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>378</v>
+      </c>
+      <c r="F257">
+        <v>15</v>
+      </c>
+      <c r="G257">
+        <v>12</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>377</v>
+      </c>
+      <c r="C258" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258">
+        <v>1.1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>378</v>
+      </c>
+      <c r="F258">
+        <v>15</v>
+      </c>
+      <c r="G258">
+        <v>12</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>379</v>
+      </c>
+      <c r="C259" t="s">
+        <v>149</v>
+      </c>
+      <c r="D259">
+        <v>8</v>
+      </c>
+      <c r="E259" t="s">
+        <v>380</v>
+      </c>
+      <c r="F259">
+        <v>15</v>
+      </c>
+      <c r="G259">
+        <v>10</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>381</v>
+      </c>
+      <c r="C260" t="s">
+        <v>149</v>
+      </c>
+      <c r="D260">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s">
+        <v>382</v>
+      </c>
+      <c r="F260">
+        <v>15</v>
+      </c>
+      <c r="G260">
+        <v>10</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>383</v>
+      </c>
+      <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261">
+        <v>1.1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>384</v>
+      </c>
+      <c r="F261" t="s">
+        <v>71</v>
+      </c>
+      <c r="G261">
+        <v>104</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>385</v>
+      </c>
+      <c r="C262" t="s">
+        <v>164</v>
+      </c>
+      <c r="D262">
+        <v>0.75</v>
+      </c>
+      <c r="E262" t="s">
+        <v>386</v>
+      </c>
+      <c r="F262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262">
+        <v>365</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>387</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263">
+        <v>1.1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>388</v>
+      </c>
+      <c r="F263" t="s">
+        <v>389</v>
+      </c>
+      <c r="G263">
+        <v>12</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>390</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <v>1.1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>391</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+      <c r="G264">
+        <v>365</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>392</v>
+      </c>
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265">
+        <v>1.1</v>
+      </c>
+      <c r="E265" t="s">
+        <v>393</v>
+      </c>
+      <c r="F265" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265">
+        <v>365</v>
+      </c>
+      <c r="H265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>394</v>
+      </c>
+      <c r="C266" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <v>1.1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>395</v>
+      </c>
+      <c r="F266" t="s">
+        <v>45</v>
+      </c>
+      <c r="G266">
+        <v>52</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>396</v>
+      </c>
+      <c r="C267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <v>1.1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>397</v>
+      </c>
+      <c r="F267" t="s">
+        <v>162</v>
+      </c>
+      <c r="G267">
+        <v>35</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>92</v>
+      </c>
+      <c r="C268" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268">
+        <v>1.1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>398</v>
+      </c>
+      <c r="F268" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268">
+        <v>365</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>400</v>
+      </c>
+      <c r="E272" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
+        <v>402</v>
+      </c>
+      <c r="E273" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274" t="s">
+        <v>404</v>
+      </c>
+      <c r="E274" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>406</v>
+      </c>
+      <c r="E275" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>408</v>
+      </c>
+      <c r="E276" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>410</v>
+      </c>
+      <c r="E277" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>7</v>
+      </c>
+      <c r="B278" t="s">
+        <v>412</v>
+      </c>
+      <c r="E278" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>8</v>
+      </c>
+      <c r="B279" t="s">
+        <v>414</v>
+      </c>
+      <c r="E279" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>9</v>
+      </c>
+      <c r="B280" t="s">
+        <v>416</v>
+      </c>
+      <c r="E280" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>418</v>
+      </c>
+      <c r="E281" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282">
+        <v>11</v>
+      </c>
+      <c r="B282" t="s">
+        <v>420</v>
+      </c>
+      <c r="E282" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>12</v>
+      </c>
+      <c r="B283" t="s">
+        <v>422</v>
+      </c>
+      <c r="E283" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>13</v>
+      </c>
+      <c r="B284" t="s">
+        <v>424</v>
+      </c>
+      <c r="E284" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>14</v>
+      </c>
+      <c r="B285" t="s">
+        <v>426</v>
+      </c>
+      <c r="E285" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>428</v>
+      </c>
+      <c r="E286" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>16</v>
+      </c>
+      <c r="B287" t="s">
+        <v>430</v>
+      </c>
+      <c r="E287" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>17</v>
+      </c>
+      <c r="B288" t="s">
+        <v>430</v>
+      </c>
+      <c r="E288" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>432</v>
+      </c>
+      <c r="E289" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>19</v>
+      </c>
+      <c r="B290" t="s">
+        <v>434</v>
+      </c>
+      <c r="E290" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>20</v>
+      </c>
+      <c r="B291" t="s">
+        <v>434</v>
+      </c>
+      <c r="E291" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>21</v>
+      </c>
+      <c r="B292" t="s">
+        <v>436</v>
+      </c>
+      <c r="E292" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>22</v>
+      </c>
+      <c r="B293" t="s">
+        <v>438</v>
+      </c>
+      <c r="E293" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>23</v>
+      </c>
+      <c r="B294" t="s">
+        <v>440</v>
+      </c>
+      <c r="E294" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295">
+        <v>24</v>
+      </c>
+      <c r="B295" t="s">
+        <v>442</v>
+      </c>
+      <c r="E295" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296">
+        <v>25</v>
+      </c>
+      <c r="B296" t="s">
+        <v>444</v>
+      </c>
+      <c r="E296" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297">
+        <v>26</v>
+      </c>
+      <c r="B297" t="s">
+        <v>446</v>
+      </c>
+      <c r="E297" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298">
+        <v>27</v>
+      </c>
+      <c r="B298" t="s">
+        <v>448</v>
+      </c>
+      <c r="E298" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299">
+        <v>28</v>
+      </c>
+      <c r="B299" t="s">
+        <v>450</v>
+      </c>
+      <c r="E299" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300">
+        <v>29</v>
+      </c>
+      <c r="B300" t="s">
+        <v>452</v>
+      </c>
+      <c r="E300" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/export.xlsx
+++ b/storage/app/public/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>N</t>
   </si>
@@ -41,22 +41,34 @@
     <t>Вывозимое кол-во</t>
   </si>
   <si>
-    <t>1-й Амурский проезд, д. 3 к2, Омск г</t>
+    <t>1-й Амурский проезд, д. 5 к1, Омск г</t>
   </si>
   <si>
     <t>Стационарные (евро) (1,1 м3)</t>
   </si>
   <si>
-    <t>УТ0042333</t>
+    <t>УТ0037514</t>
   </si>
   <si>
     <t>Пн., Вт., Ср., Чт., Пт., Сб., Вс.</t>
   </si>
   <si>
-    <t>1-й Амурский проезд, д. 5 к1, Омск г</t>
-  </si>
-  <si>
-    <t>УТ0037514</t>
+    <t>1-й Амурский проезд, д. 5, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0041806</t>
+  </si>
+  <si>
+    <t>1-й Амурский проезд, д. 7, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0048083</t>
+  </si>
+  <si>
+    <t>1-й Амурский проезд, д. 9 к1, Омск г</t>
+  </si>
+  <si>
+    <t>УТ0052124</t>
   </si>
 </sst>
 </file>
@@ -395,7 +407,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -469,7 +481,7 @@
         <v>1.1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -504,6 +516,58 @@
         <v>365</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>365</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>365</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
